--- a/biology/Écologie/Équations_de_prédation_de_Lotka-Volterra/Équations_de_prédation_de_Lotka-Volterra.xlsx
+++ b/biology/Écologie/Équations_de_prédation_de_Lotka-Volterra/Équations_de_prédation_de_Lotka-Volterra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mathématiques, les équations de prédation de Lotka-Volterra, que l'on désigne aussi sous le terme de « modèle proie-prédateur », sont un couple d'équations différentielles non linéaires du premier ordre, et sont couramment utilisées pour décrire la dynamique de systèmes biologiques dans lesquels un prédateur et sa proie interagissent. Elles ont été proposées indépendamment par Alfred James Lotka en 1925[1] et Vito Volterra en 1926[2]. 
-Ce système d'équations est classiquement utilisé comme modèle pour la dynamique du lynx et du lièvre des neiges, pour laquelle de nombreuses données de terrain ont été collectées sur les populations des deux espèces par la Compagnie de la baie d'Hudson au XIXe siècle. Il a aussi été employé par Allan Hobson pour décrire les relations entre les neurones cholinergiques responsables du sommeil paradoxal et les neurones aminergiques liées à l'état de veille[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mathématiques, les équations de prédation de Lotka-Volterra, que l'on désigne aussi sous le terme de « modèle proie-prédateur », sont un couple d'équations différentielles non linéaires du premier ordre, et sont couramment utilisées pour décrire la dynamique de systèmes biologiques dans lesquels un prédateur et sa proie interagissent. Elles ont été proposées indépendamment par Alfred James Lotka en 1925 et Vito Volterra en 1926. 
+Ce système d'équations est classiquement utilisé comme modèle pour la dynamique du lynx et du lièvre des neiges, pour laquelle de nombreuses données de terrain ont été collectées sur les populations des deux espèces par la Compagnie de la baie d'Hudson au XIXe siècle. Il a aussi été employé par Allan Hobson pour décrire les relations entre les neurones cholinergiques responsables du sommeil paradoxal et les neurones aminergiques liées à l'état de veille.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Les équations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elles s'écrivent fréquemment : 
           {
@@ -610,7 +624,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -628,11 +642,48 @@
           <t>Signification physique des équations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une fois développées, les équations prennent une forme utile pour une interprétation physique.
-Proies
-L'équation de la proie est :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Signification physique des équations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Proies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équation de la proie est :
                 d
               x
                 d
@@ -689,8 +740,43 @@
     {\displaystyle y(t)}
  est nul, alors il ne peut y avoir aucune prédation.
 Avec ces deux termes, l'équation peut alors être interprétée comme : la variation du nombre de proies est donnée par sa propre croissance moins le taux de prédation qui leur est appliqué.
-Prédateurs
-L'équation du prédateur est :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Signification physique des équations</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prédateurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équation du prédateur est :
                 d
               y
                 d
@@ -738,34 +824,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Solutions de l'équation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comportement global
-On prouve que pour une condition initiale au temps 
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Comportement global</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On prouve que pour une condition initiale au temps 
           t
             0
     {\displaystyle t_{0}}
@@ -849,11 +940,46 @@
         )
         )
     {\displaystyle t\mapsto F(x(t),y(t))}
- est constante[4].
-Les solutions maximales sont périodiques, et leur trajectoire est fermée bornée[4].
+ est constante.
+Les solutions maximales sont périodiques, et leur trajectoire est fermée bornée.
 Les solutions n'ont pas d'expression simple à l'aide des fonctions trigonométriques habituelles. Néanmoins, une solution approximative linéarisée offre un mouvement harmonique simple, avec la population des prédateurs en retard de 90° (un quart de période) sur celle des proies.
-Moyennes des solutions
-Il est cependant possible de calculer les moyennes 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Solutions de l'équation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Moyennes des solutions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est cependant possible de calculer les moyennes 
         ⟨
         x
         ⟩
@@ -1017,35 +1143,72 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Écologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Dynamique du système</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le modèle utilisé, les prédateurs prospèrent lorsque les proies sont nombreuses, mais finissent par épuiser leurs ressources et déclinent. Lorsque la population de prédateurs a suffisamment diminué, les proies profitant du répit se reproduisent et leur population augmente de nouveau. Cette dynamique se poursuit en un cycle de croissance et déclin.
-Équilibres de la population
-Un état d'équilibre de la population est observé quand aucune des deux populations en présence n'évolue, c'est-à-dire quand les dérivées correspondantes sont nulles, ce qui se traduit par le système d'équations :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Dynamique du système</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Équilibres de la population</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un état d'équilibre de la population est observé quand aucune des deux populations en présence n'évolue, c'est-à-dire quand les dérivées correspondantes sont nulles, ce qui se traduit par le système d'équations :
           {
                   x
                   (
@@ -1128,8 +1291,43 @@
         δ
     {\displaystyle \delta }
  pour lesquelles les deux populations restent stables indéfiniment.
-Stabilité des points fixes
-La stabilité des points fixes peut être déterminée par une linéarisation du système aux dérivées partielles. La matrice jacobienne du système est
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Dynamique du système</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Stabilité des points fixes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La stabilité des points fixes peut être déterminée par une linéarisation du système aux dérivées partielles. La matrice jacobienne du système est
         J
         (
         x
@@ -1171,8 +1369,47 @@
                   γ
             ]
     {\displaystyle J(x(t),y(t))={\begin{bmatrix}\alpha -\beta y(t)&amp;-\beta x(t)\\\delta y(t)&amp;\delta x(t)-\gamma \\\end{bmatrix}}}
-Premier point fixe
-Au premier point fixe 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Dynamique du système</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Stabilité des points fixes</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Premier point fixe</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au premier point fixe 
         (
         0
         ,
@@ -1210,8 +1447,47 @@
         .
     {\displaystyle \lambda _{1}=\alpha ,\quad \lambda _{2}=-\gamma .}
 Ces valeurs propres sont toujours de signes opposés, ce qui montre que ce point fixe est un point col. Ce n'est donc pas un point fixe stable, ce qui montre en particulier que, suivant ce modèle, l'extinction des deux espèces en jeu est difficile à obtenir.
-Second point fixe
-En évaluant la matrice jacobienne au second point fixe, la valeur suivante est obtenue :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Équations_de_prédation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89quations_de_pr%C3%A9dation_de_Lotka-Volterra</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dynamique du système</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Stabilité des points fixes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Second point fixe</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En évaluant la matrice jacobienne au second point fixe, la valeur suivante est obtenue :
         J
           (
                 γ
